--- a/Statistifiles/实验情况表.xlsx
+++ b/Statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF78DD-E54E-407D-9EDF-A3FD9D33CA86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10E6BF-05CC-46E2-864A-108513BCF488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,15 +213,15 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -533,25 +533,25 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -565,14 +565,14 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -621,13 +621,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>10</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>0.50749999999999995</v>
       </c>
       <c r="K5" t="s">
@@ -655,13 +655,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>2000</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>0.70109999999999995</v>
       </c>
     </row>
@@ -723,13 +723,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>500</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>0.84519999999999995</v>
       </c>
       <c r="K12" t="s">

--- a/Statistifiles/实验情况表.xlsx
+++ b/Statistifiles/实验情况表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE10E6BF-05CC-46E2-864A-108513BCF488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5C32A9-D535-40A0-A559-42A4214E9131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,18 @@
   </si>
   <si>
     <t>87.65±0.497%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Vmaml </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84.57±0.7%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VMAML 同步训练-一个loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,12 +799,31 @@
         <v>27</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A17:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Statistifiles/实验情况表.xlsx
+++ b/Statistifiles/实验情况表.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20348"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20349"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5C32A9-D535-40A0-A559-42A4214E9131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84403E7F-3413-4AC9-A600-D5AB3A831157}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>few-shot learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,14 @@
   </si>
   <si>
     <t>VMAML 同步训练-一个loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vmaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86.71±0.56%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,6 +823,17 @@
       </c>
       <c r="C18" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>4000</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
